--- a/data/trans_camb/IP16B02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B02-Habitat-trans_camb.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,04</t>
+          <t>17,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>17,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>12,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>12,81</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 17,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 13,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,38; 8,28</t>
+          <t>0,0; 68,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 24,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 7,7</t>
+          <t>0,0; 51,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 12,77</t>
+          <t>0,0; 51,5</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,84%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,48%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,84%</t>
+          <t>14,69%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 21,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 17,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-32,97; 10,73</t>
+          <t>0,0; 213,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 34,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 9,11</t>
+          <t>0,0; 105,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 15,96</t>
+          <t>0,0; 106,2</t>
         </is>
       </c>
     </row>
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-13,04</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>-6,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>-0,75</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 14,14</t>
+          <t>-11,65; 17,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 18,26</t>
+          <t>-20,07; 13,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 22,62</t>
+          <t>-31,38; 8,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 28,13</t>
+          <t>-15,59; 24,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 11,45</t>
+          <t>-18,49; 7,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 17,73</t>
+          <t>-12,2; 12,77</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-4,06%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>-0,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>-14,84%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>-7,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>-0,84%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 17,75</t>
+          <t>-11,58; 21,89</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 22,58</t>
+          <t>-20,77; 17,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 33,48</t>
+          <t>-32,97; 10,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 42,4</t>
+          <t>-16,54; 34,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 14,24</t>
+          <t>-19,84; 9,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 22,43</t>
+          <t>-13,25; 15,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,13</t>
+          <t>-12,69</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,13</t>
+          <t>-14,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,81</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>12,81</t>
+          <t>-1,97</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,67; 19,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,36; 25,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,1</t>
+          <t>-29,37; 4,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,77; 3,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,4</t>
+          <t>-18,62; 10,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,5</t>
+          <t>-16,46; 12,57</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,9%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>-13,37%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>-15,73%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>-5,86%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>-2,24%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,17; 28,09</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,05; 36,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 213,48</t>
+          <t>-29,65; 5,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,08; 1,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 105,76</t>
+          <t>-19,45; 13,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,0; 106,2</t>
+          <t>-17,77; 15,64</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-12,69</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-14,93</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,13</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>2,37</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 19,44</t>
+          <t>-20,75; 14,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 25,41</t>
+          <t>-12,38; 18,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-29,37; 4,59</t>
+          <t>-23,95; 22,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-35,77; 3,61</t>
+          <t>-15,74; 28,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 10,63</t>
+          <t>-16,9; 11,45</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 12,57</t>
+          <t>-10,56; 17,73</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>-4,06%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-13,37%</t>
+          <t>-3,24%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-15,73%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-5,86%</t>
+          <t>-4,21%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-2,24%</t>
+          <t>2,68%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 28,09</t>
+          <t>-23,04; 17,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 36,53</t>
+          <t>-13,02; 22,58</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 5,33</t>
+          <t>-25,11; 33,48</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-37,08; 1,96</t>
+          <t>-16,09; 42,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 13,79</t>
+          <t>-17,78; 14,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 15,64</t>
+          <t>-11,09; 22,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B02-Habitat-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,43; 27,25</t>
+          <t>-17,41; 28,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,23; 19,11</t>
+          <t>-36,18; 19,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,02; 86,77</t>
+          <t>13,79; 88,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 75,84</t>
+          <t>-9,21; 74,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 47,99</t>
+          <t>-1,1; 45,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 40,38</t>
+          <t>-16,7; 41,64</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,76; 42,8</t>
+          <t>-20,23; 42,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,67; 23,58</t>
+          <t>-36,62; 23,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,43; —</t>
+          <t>19,69; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,57; —</t>
+          <t>-18,8; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 122,24</t>
+          <t>-1,22; 107,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 93,99</t>
+          <t>-19,94; 97,56</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 17,1</t>
+          <t>-14,63; 16,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-20,07; 13,79</t>
+          <t>-19,19; 14,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-31,38; 8,28</t>
+          <t>-33,29; 10,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,59; 24,25</t>
+          <t>-16,9; 23,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 7,7</t>
+          <t>-19,27; 6,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 12,77</t>
+          <t>-12,2; 12,99</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 21,89</t>
+          <t>-13,16; 21,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 17,06</t>
+          <t>-20,98; 17,97</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,97; 10,73</t>
+          <t>-34,81; 12,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-16,54; 34,78</t>
+          <t>-17,98; 34,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,84; 9,11</t>
+          <t>-20,89; 7,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 15,96</t>
+          <t>-12,96; 16,23</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,67; 19,44</t>
+          <t>-20,66; 19,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,36; 25,41</t>
+          <t>-10,5; 25,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-29,37; 4,59</t>
+          <t>-30,82; 6,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-35,77; 3,61</t>
+          <t>-38,1; 1,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,62; 10,63</t>
+          <t>-19,53; 9,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 12,57</t>
+          <t>-18,76; 12,58</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,17; 28,09</t>
+          <t>-22,0; 27,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 36,53</t>
+          <t>-11,41; 37,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,65; 5,33</t>
+          <t>-31,84; 7,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-37,08; 1,96</t>
+          <t>-39,37; 1,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 13,79</t>
+          <t>-21,15; 11,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 15,64</t>
+          <t>-19,77; 15,73</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-20,75; 14,14</t>
+          <t>-22,19; 15,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 18,26</t>
+          <t>-13,67; 18,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 22,62</t>
+          <t>-22,22; 22,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-15,74; 28,13</t>
+          <t>-15,12; 29,17</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 11,45</t>
+          <t>-17,86; 11,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 17,73</t>
+          <t>-10,66; 17,09</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-23,04; 17,75</t>
+          <t>-23,77; 20,15</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 22,58</t>
+          <t>-14,79; 22,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 33,48</t>
+          <t>-23,89; 31,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 42,4</t>
+          <t>-15,62; 45,0</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-17,78; 14,24</t>
+          <t>-19,35; 13,76</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 22,43</t>
+          <t>-11,11; 21,78</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 8,45</t>
+          <t>-9,4; 8,14</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 11,43</t>
+          <t>-7,12; 11,81</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 13,85</t>
+          <t>-11,45; 13,3</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 15,17</t>
+          <t>-8,78; 16,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,8; 6,78</t>
+          <t>-8,99; 5,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 9,32</t>
+          <t>-6,25; 9,16</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-11,59; 9,86</t>
+          <t>-10,17; 9,74</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,5; 13,8</t>
+          <t>-7,72; 14,41</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 19,7</t>
+          <t>-13,03; 19,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 21,35</t>
+          <t>-10,02; 23,16</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 8,24</t>
+          <t>-10,18; 7,2</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 11,44</t>
+          <t>-6,87; 11,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B02-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,1</t>
+          <t>0,0; 66,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,12 +659,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,4</t>
+          <t>0,0; 50,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,5</t>
+          <t>0,0; 50,81</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 213,48</t>
+          <t>0,0; 198,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -735,19 +735,19 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 105,76</t>
+          <t>0,0; 102,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 106,2</t>
+          <t>0,0; 103,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 28,19</t>
+          <t>-20,41; 24,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,18; 19,11</t>
+          <t>-36,15; 19,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,79; 88,14</t>
+          <t>14,59; 86,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 74,24</t>
+          <t>-2,82; 78,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 45,88</t>
+          <t>1,24; 48,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 41,64</t>
+          <t>-18,18; 38,36</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,23; 42,17</t>
+          <t>-20,65; 35,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 23,59</t>
+          <t>-36,42; 24,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,69; —</t>
+          <t>16,58; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,8; —</t>
+          <t>-8,68; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 107,95</t>
+          <t>1,99; 119,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 97,56</t>
+          <t>-21,88; 87,06</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 16,83</t>
+          <t>-11,27; 16,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 14,11</t>
+          <t>-17,15; 13,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-33,29; 10,33</t>
+          <t>-32,11; 10,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,9; 23,95</t>
+          <t>-16,17; 21,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,27; 6,48</t>
+          <t>-19,23; 6,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 12,99</t>
+          <t>-12,96; 11,83</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,16; 21,09</t>
+          <t>-11,64; 21,13</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 17,97</t>
+          <t>-18,39; 17,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,81; 12,95</t>
+          <t>-34,67; 12,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,98; 34,13</t>
+          <t>-17,88; 30,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,89; 7,86</t>
+          <t>-20,55; 7,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 16,23</t>
+          <t>-13,85; 14,2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-20,66; 19,77</t>
+          <t>-21,07; 21,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 25,72</t>
+          <t>-13,12; 27,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 6,58</t>
+          <t>-29,35; 3,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-38,1; 1,84</t>
+          <t>-36,68; 2,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 9,29</t>
+          <t>-17,82; 9,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,76; 12,58</t>
+          <t>-16,27; 13,0</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 27,53</t>
+          <t>-22,93; 30,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 37,7</t>
+          <t>-13,77; 41,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,84; 7,27</t>
+          <t>-30,54; 3,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,37; 1,21</t>
+          <t>-38,55; 2,5</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,15; 11,58</t>
+          <t>-19,12; 13,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,77; 15,73</t>
+          <t>-17,91; 16,1</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-22,19; 15,97</t>
+          <t>-22,0; 14,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 18,25</t>
+          <t>-13,03; 18,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-22,22; 22,32</t>
+          <t>-21,8; 27,29</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 29,17</t>
+          <t>-18,14; 28,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 11,0</t>
+          <t>-17,48; 11,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 17,09</t>
+          <t>-9,63; 17,97</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-23,77; 20,15</t>
+          <t>-23,99; 17,39</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,79; 22,43</t>
+          <t>-13,63; 22,18</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,89; 31,79</t>
+          <t>-23,73; 42,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 45,0</t>
+          <t>-18,2; 45,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 13,76</t>
+          <t>-18,43; 13,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 21,78</t>
+          <t>-10,38; 23,13</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,4; 8,14</t>
+          <t>-10,9; 8,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 11,81</t>
+          <t>-7,02; 11,53</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 13,3</t>
+          <t>-10,7; 13,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 16,54</t>
+          <t>-9,05; 15,93</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 5,77</t>
+          <t>-8,64; 6,49</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 9,16</t>
+          <t>-6,11; 9,2</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 9,74</t>
+          <t>-11,69; 9,62</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 14,41</t>
+          <t>-7,42; 13,95</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 19,57</t>
+          <t>-12,15; 19,11</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 23,16</t>
+          <t>-10,59; 22,3</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 7,2</t>
+          <t>-9,79; 8,09</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 11,31</t>
+          <t>-6,85; 11,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B02-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP16B02-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>33,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,13</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,13</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>12,81</t>
+          <t>15,54</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,81</t>
+          <t>6,48</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,38; 61,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,57; 52,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 66,48</t>
+          <t>-21,45; 18,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,66; 15,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,66</t>
+          <t>-3,23; 35,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,81</t>
+          <t>-17,44; 28,36</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,18%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>-5,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>-2,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>21,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>9,03%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,79; 230,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,27; 165,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 198,29</t>
+          <t>-23,72; 23,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,14; 18,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 102,66</t>
+          <t>-3,6; 64,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 103,3</t>
+          <t>-20,89; 46,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-13,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>57,96</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,11</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>22,4</t>
+          <t>-6,66</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,72</t>
+          <t>-0,75</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 24,98</t>
+          <t>-31,38; 8,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-36,15; 19,58</t>
+          <t>-15,59; 24,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,59; 86,77</t>
+          <t>-11,65; 17,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 78,07</t>
+          <t>-20,07; 13,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 48,06</t>
+          <t>-18,49; 7,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 38,36</t>
+          <t>-12,2; 12,77</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,5%</t>
+          <t>-14,84%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,5%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>226,04%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>164,23%</t>
+          <t>-0,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>-7,48%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,46%</t>
+          <t>-0,84%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,65; 35,31</t>
+          <t>-32,97; 10,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,42; 24,11</t>
+          <t>-16,54; 34,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,58; —</t>
+          <t>-11,58; 21,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,68; —</t>
+          <t>-20,77; 17,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,99; 119,83</t>
+          <t>-19,84; 9,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,88; 87,06</t>
+          <t>-13,25; 15,96</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>-12,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-14,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-13,04</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>7,5</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-6,66</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-1,97</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,27; 16,93</t>
+          <t>-29,37; 4,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,15; 13,98</t>
+          <t>-35,77; 3,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 10,85</t>
+          <t>-18,67; 19,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,17; 21,31</t>
+          <t>-10,36; 25,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-19,23; 6,54</t>
+          <t>-18,62; 10,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 11,83</t>
+          <t>-16,46; 12,57</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>-13,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,84%</t>
+          <t>-15,73%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-14,84%</t>
+          <t>-0,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,17%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,48%</t>
+          <t>-5,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,84%</t>
+          <t>-2,24%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 21,13</t>
+          <t>-29,65; 5,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 17,69</t>
+          <t>-37,08; 1,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-34,67; 12,07</t>
+          <t>-20,17; 28,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,88; 30,2</t>
+          <t>-11,05; 36,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,55; 7,89</t>
+          <t>-19,45; 13,79</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,85; 14,2</t>
+          <t>-17,77; 15,64</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-12,69</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-14,93</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,13</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>2,37</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 21,39</t>
+          <t>-23,95; 22,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,12; 27,78</t>
+          <t>-15,74; 28,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-29,35; 3,58</t>
+          <t>-20,75; 14,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 2,54</t>
+          <t>-12,38; 18,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 9,98</t>
+          <t>-16,9; 11,45</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,27; 13,0</t>
+          <t>-10,56; 17,73</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,9%</t>
+          <t>-3,24%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-13,37%</t>
+          <t>-4,06%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-15,73%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-5,86%</t>
+          <t>-4,21%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-2,24%</t>
+          <t>2,68%</t>
         </is>
       </c>
     </row>
@@ -1183,39 +1183,39 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,93; 30,29</t>
+          <t>-25,11; 33,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 41,21</t>
+          <t>-16,09; 42,4</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,54; 3,76</t>
+          <t>-23,04; 17,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-38,55; 2,5</t>
+          <t>-13,02; 22,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 13,6</t>
+          <t>-17,78; 14,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 16,1</t>
+          <t>-11,09; 22,43</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>1,46</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 14,41</t>
+          <t>-11,16; 13,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,03; 18,01</t>
+          <t>-11,05; 15,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-21,8; 27,29</t>
+          <t>-10,7; 8,45</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 28,97</t>
+          <t>-6,89; 11,43</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 11,12</t>
+          <t>-8,8; 6,78</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 17,97</t>
+          <t>-6,27; 9,32</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-4,06%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-3,24%</t>
+          <t>-1,48%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-4,21%</t>
+          <t>-1,45%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1339,200 +1339,44 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-23,99; 17,39</t>
+          <t>-12,88; 19,7</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-13,63; 22,18</t>
+          <t>-12,64; 21,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-23,73; 42,78</t>
+          <t>-11,59; 9,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-18,2; 45,65</t>
+          <t>-7,5; 13,8</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-18,43; 13,66</t>
+          <t>-10,1; 8,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 23,13</t>
+          <t>-7,18; 11,44</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-1,31</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>2,22</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>2,94</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-1,23</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-10,9; 8,31</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-7,02; 11,53</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-10,7; 13,68</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-9,05; 15,93</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-8,64; 6,49</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-6,11; 9,2</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-1,48%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>2,49%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>0,71%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>3,67%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-1,45%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-11,69; 9,62</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-7,42; 13,95</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-12,15; 19,11</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-10,59; 22,3</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-9,79; 8,09</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-6,85; 11,5</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
@@ -1541,7 +1385,6 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
